--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RL" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">R (kohm)</t>
   </si>
@@ -50,6 +51,33 @@
   <si>
     <t xml:space="preserve">ultimi valori si F calcolati a mano</t>
   </si>
+  <si>
+    <t>R(kOhm)</t>
+  </si>
+  <si>
+    <t>R_L</t>
+  </si>
+  <si>
+    <t>Freq(kHz)</t>
+  </si>
+  <si>
+    <t>sigmaV_in</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>faseL(deg)</t>
+  </si>
+  <si>
+    <t>sigmaV_L</t>
+  </si>
+  <si>
+    <t>sigmaF_L</t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +111,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
       </patternFill>
     </fill>
     <fill>
@@ -117,17 +163,23 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -232,15 +284,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>RC!$B$2:$B$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>RC!$E$2:$E$12</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664968981"/>
         <c:axId val="664968982"/>
       </c:scatterChart>
@@ -309,6 +370,7 @@
         </c:txPr>
         <c:crossAx val="664968982"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664968982"/>
@@ -555,15 +617,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>RC!$B$2:$B$12</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$12</c:f>
+              <c:f>RC!$G$2:$G$12</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664968989"/>
         <c:axId val="664968990"/>
       </c:scatterChart>
@@ -632,6 +703,7 @@
         </c:txPr>
         <c:crossAx val="664968990"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664968990"/>
@@ -1966,7 +2038,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>273049</xdr:colOff>
+      <xdr:colOff>273048</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
@@ -1998,9 +2070,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
+      <xdr:colOff>355598</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -2549,19 +2621,19 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -2569,31 +2641,31 @@
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>0.16</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>85.799999999999997</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="5">
         <v>-2.52</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>0.01</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J2">
@@ -2610,25 +2682,25 @@
       <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>2.52</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>82.700000000000003</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>-7.2000000000000002</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.01</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J3">
@@ -2642,25 +2714,25 @@
       <c r="B4">
         <v>400</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>0.59999999999999998</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>2.48</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>76.5</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>-12.9</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>0.01</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J4">
@@ -2674,25 +2746,25 @@
       <c r="B5">
         <v>800</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>63.899999999999999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>-26.199999999999999</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J5">
@@ -2706,25 +2778,25 @@
       <c r="B6">
         <v>1600</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>2.52</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>1.74</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>1.8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>46.299999999999997</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>-42.799999999999997</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J6">
@@ -2738,25 +2810,25 @@
       <c r="B7">
         <v>3200</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>2.48</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>27.399999999999999</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>-60.5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J7">
@@ -2767,29 +2839,28 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8"/>
       <c r="B8">
         <v>6400</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>2.48</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>2.3999999999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.64000000000000001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>14.800000000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>-76.400000000000006</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J8">
@@ -2798,33 +2869,31 @@
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9"/>
       <c r="B9">
         <v>12800</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>2.48</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>2.48</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.32000000000000001</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>7.3799999999999999</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <f>-12800*0.000018*360</f>
         <v>-82.944000000000003</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J9">
@@ -2838,26 +2907,26 @@
       <c r="B10">
         <v>25600</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2.52</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>2.48</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.16</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>3.2200000000000002</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <f>-25600*0.0000092*360</f>
         <v>-84.787199999999999</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J10">
@@ -2871,25 +2940,25 @@
       <c r="B11">
         <v>51200</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>2.52</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>2.52</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.080000000000000002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>-90</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J11">
@@ -2903,25 +2972,25 @@
       <c r="B12">
         <v>102400</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>2.52</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>2.52</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.080000000000000002</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>0.72999999999999998</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>-90</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J12">
@@ -2939,4 +3008,362 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="B2" s="7">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-3.2400000000000002</v>
+      </c>
+      <c r="I2" s="6">
+        <v>159</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="11">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-5.4000000000000004</v>
+      </c>
+      <c r="I3" s="6">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="11">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-10.6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>81.5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="11">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.3599999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-35.899999999999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>54.600000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="11">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.4399999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.1200000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-57.399999999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>34.600000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="11">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-77.799999999999997</v>
+      </c>
+      <c r="I8" s="6">
+        <v>17.300000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="11">
+        <v>192</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-92.799999999999997</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5.6699999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -58,7 +58,7 @@
     <t>R_L</t>
   </si>
   <si>
-    <t>Freq(kHz)</t>
+    <t xml:space="preserve">Freq (kHz)</t>
   </si>
   <si>
     <t>sigmaV_in</t>
@@ -70,7 +70,7 @@
     <t>VL</t>
   </si>
   <si>
-    <t>faseL(deg)</t>
+    <t xml:space="preserve">faseL (deg)</t>
   </si>
   <si>
     <t>sigmaV_L</t>
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,24 +111,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF00B0F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="2"/>
-        <bgColor indexed="2"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,9 +158,11 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -297,6 +281,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -630,6 +615,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -3017,7 +3003,10 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="12.140625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
@@ -3026,42 +3015,42 @@
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2" s="7">
@@ -3089,10 +3078,10 @@
         <v>159</v>
       </c>
       <c r="J2" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K2" s="6">
         <v>0.080000000000000002</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.040000000000000001</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
@@ -3126,10 +3115,10 @@
         <v>84.599999999999994</v>
       </c>
       <c r="J3" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K3" s="6">
         <v>0.080000000000000002</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.040000000000000001</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
@@ -3163,10 +3152,10 @@
         <v>81.5</v>
       </c>
       <c r="J4" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K4" s="6">
         <v>0.080000000000000002</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.040000000000000001</v>
       </c>
       <c r="L4" s="7">
         <v>1</v>
@@ -3200,10 +3189,10 @@
         <v>74.599999999999994</v>
       </c>
       <c r="J5" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="K5" s="6">
         <v>0.080000000000000002</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.040000000000000001</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
@@ -3237,10 +3226,10 @@
         <v>54.600000000000001</v>
       </c>
       <c r="J6" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K6" s="6">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.080000000000000002</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
@@ -3274,10 +3263,10 @@
         <v>34.600000000000001</v>
       </c>
       <c r="J7" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K7" s="6">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.080000000000000002</v>
       </c>
       <c r="L7" s="7">
         <v>2</v>
@@ -3311,10 +3300,10 @@
         <v>17.300000000000001</v>
       </c>
       <c r="J8" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K8" s="6">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.080000000000000002</v>
       </c>
       <c r="L8" s="7">
         <v>2</v>
@@ -3348,10 +3337,10 @@
         <v>5.6699999999999999</v>
       </c>
       <c r="J9" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.080000000000000002</v>
       </c>
       <c r="L9" s="7">
         <v>5</v>

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">R (kohm)</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Vin</t>
   </si>
   <si>
-    <t>Vr</t>
+    <t>VR</t>
   </si>
   <si>
-    <t>Vc</t>
+    <t>VC</t>
   </si>
   <si>
     <t xml:space="preserve">faseR (deg)</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>sigmaV_in</t>
-  </si>
-  <si>
-    <t>VR</t>
   </si>
   <si>
     <t>VL</t>
@@ -145,7 +142,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -158,11 +155,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2649,10 +2641,10 @@
         <v>-2.52</v>
       </c>
       <c r="H2" s="4">
-        <v>0.01</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I2" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -2684,10 +2676,10 @@
         <v>-7.2000000000000002</v>
       </c>
       <c r="H3" s="4">
-        <v>0.01</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I3" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2716,10 +2708,10 @@
         <v>-12.9</v>
       </c>
       <c r="H4" s="4">
-        <v>0.01</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I4" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2751,7 +2743,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="I5" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2783,7 +2775,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="I6" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2815,7 +2807,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>0.080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2847,7 +2839,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="I8" s="4">
-        <v>0.080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -2880,7 +2872,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="I9" s="4">
-        <v>0.080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2910,10 +2902,10 @@
         <v>-84.787199999999999</v>
       </c>
       <c r="H10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.080000000000000002</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -2942,10 +2934,10 @@
         <v>-90</v>
       </c>
       <c r="H11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.080000000000000002</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -2974,10 +2966,10 @@
         <v>-90</v>
       </c>
       <c r="H12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.080000000000000002</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -3015,7 +3007,7 @@
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3025,28 +3017,28 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -3056,7 +3048,7 @@
       <c r="B2" s="7">
         <v>40</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>1.5</v>
       </c>
       <c r="D2" s="6">
@@ -3093,7 +3085,7 @@
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
       <c r="D3" s="6">
@@ -3130,7 +3122,7 @@
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>6</v>
       </c>
       <c r="D4" s="6">
@@ -3167,7 +3159,7 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>12</v>
       </c>
       <c r="D5" s="6">
@@ -3204,7 +3196,7 @@
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>24</v>
       </c>
       <c r="D6" s="6">
@@ -3241,7 +3233,7 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>48</v>
       </c>
       <c r="D7" s="6">
@@ -3278,7 +3270,7 @@
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>96</v>
       </c>
       <c r="D8" s="6">
@@ -3315,7 +3307,7 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>192</v>
       </c>
       <c r="D9" s="6">

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -49,7 +49,7 @@
     <t>sigmaF_C</t>
   </si>
   <si>
-    <t xml:space="preserve">ultimi valori si F calcolati a mano</t>
+    <t>sigmaVin</t>
   </si>
   <si>
     <t>R(kOhm)</t>
@@ -142,11 +142,12 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
@@ -2617,33 +2618,36 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>0.16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>2.5600000000000001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>85.799999999999997</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>-2.52</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>0.080000000000000002</v>
       </c>
       <c r="J2">
@@ -2652,33 +2656,33 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="L2">
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>2.52</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>82.700000000000003</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>-7.2000000000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0.080000000000000002</v>
       </c>
       <c r="J3">
@@ -2692,25 +2696,25 @@
       <c r="B4">
         <v>400</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>0.59999999999999998</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>2.48</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>76.5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>-12.9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0.080000000000000002</v>
       </c>
       <c r="J4">
@@ -2724,25 +2728,25 @@
       <c r="B5">
         <v>800</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>63.899999999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>-26.199999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>0.080000000000000002</v>
       </c>
       <c r="J5">
@@ -2756,25 +2760,25 @@
       <c r="B6">
         <v>1600</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>2.52</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>1.74</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>1.8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>46.299999999999997</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>-42.799999999999997</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>0.080000000000000002</v>
       </c>
       <c r="J6">
@@ -2788,25 +2792,25 @@
       <c r="B7">
         <v>3200</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>2.48</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>27.399999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>-60.5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>0.040000000000000001</v>
       </c>
       <c r="J7">
@@ -2820,25 +2824,25 @@
       <c r="B8">
         <v>6400</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>2.48</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>2.3999999999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>0.64000000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>14.800000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>-76.400000000000006</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>0.040000000000000001</v>
       </c>
       <c r="J8">
@@ -2852,130 +2856,130 @@
       <c r="B9">
         <v>12800</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>2.48</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>2.48</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>0.32000000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>7.3799999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f>-12800*0.000018*360</f>
         <v>-82.944000000000003</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>0.040000000000000001</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10">
         <v>25600</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>2.52</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>2.48</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.16</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>3.2200000000000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f>-25600*0.0000092*360</f>
         <v>-84.787199999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>0.01</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>0.040000000000000001</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11">
         <v>51200</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>2.52</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>2.52</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>0.080000000000000002</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>-90</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>0.01</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>0.040000000000000001</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="B12">
         <v>102400</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>2.52</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>2.52</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>0.080000000000000002</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>0.72999999999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>-90</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>0.01</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>0.040000000000000001</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="14.25"/>
@@ -3001,13 +3005,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3042,302 +3046,302 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>9.9499999999999993</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>40</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>1.5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>2.52</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>0.16</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>2.48</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>0.16</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>-3.2400000000000002</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>159</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>2.48</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>0.16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>2.48</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>0.23999999999999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>-5.4000000000000004</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>84.599999999999994</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>2.48</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>0.16</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>2.4399999999999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>0.44</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>-10.6</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>81.5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>1</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2.48</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>0.16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>2.3599999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>0.83999999999999997</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>-19.899999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
         <v>24</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>2.48</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>0.16</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>2.04</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>1.48</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>-35.899999999999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>54.600000000000001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <v>48</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>2.52</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>0.16</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>1.4399999999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>2.1200000000000001</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>-57.399999999999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>34.600000000000001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
         <v>96</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>2.52</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>0.16</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>0.76000000000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>2.48</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>-77.799999999999997</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>17.300000000000001</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
         <v>192</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>2.52</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>0.16</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>0.25</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>2.5600000000000001</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>-92.799999999999997</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>5.6699999999999999</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>0.080000000000000002</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
     </row>

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R_RLC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">R (kohm)</t>
   </si>
@@ -52,16 +53,31 @@
     <t>sigmaVin</t>
   </si>
   <si>
-    <t>R(kOhm)</t>
+    <t xml:space="preserve">R (kOhm)</t>
   </si>
   <si>
     <t>R_L</t>
   </si>
   <si>
-    <t xml:space="preserve">Freq (kHz)</t>
+    <t>V_LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faseLC (deg)</t>
   </si>
   <si>
     <t>sigmaV_in</t>
+  </si>
+  <si>
+    <t>sigmaV_LC</t>
+  </si>
+  <si>
+    <t>sigmaF_LC</t>
+  </si>
+  <si>
+    <t>R(kOhm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freq (kHz)</t>
   </si>
   <si>
     <t>VL</t>
@@ -147,7 +163,6 @@
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
@@ -156,6 +171,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2618,36 +2634,36 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.16</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>85.799999999999997</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>-2.52</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J2">
@@ -2664,25 +2680,25 @@
       <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2.52</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>82.700000000000003</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>-7.2000000000000002</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J3">
@@ -2696,25 +2712,25 @@
       <c r="B4">
         <v>400</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.59999999999999998</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2.48</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>76.5</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>-12.9</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J4">
@@ -2728,25 +2744,25 @@
       <c r="B5">
         <v>800</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>63.899999999999999</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>-26.199999999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J5">
@@ -2760,25 +2776,25 @@
       <c r="B6">
         <v>1600</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.52</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1.74</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>46.299999999999997</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>-42.799999999999997</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.080000000000000002</v>
       </c>
       <c r="J6">
@@ -2792,25 +2808,25 @@
       <c r="B7">
         <v>3200</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2.48</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>27.399999999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>-60.5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J7">
@@ -2824,25 +2840,25 @@
       <c r="B8">
         <v>6400</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2.48</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2.3999999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.64000000000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>14.800000000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>-76.400000000000006</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J8">
@@ -2856,26 +2872,26 @@
       <c r="B9">
         <v>12800</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2.48</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.48</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.32000000000000001</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>7.3799999999999999</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>-12800*0.000018*360</f>
         <v>-82.944000000000003</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J9">
@@ -2889,26 +2905,26 @@
       <c r="B10">
         <v>25600</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2.52</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.48</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.16</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>3.2200000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f>-25600*0.0000092*360</f>
         <v>-84.787199999999999</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.01</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J10">
@@ -2922,25 +2938,25 @@
       <c r="B11">
         <v>51200</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2.52</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2.52</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="F11" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>-90</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.01</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J11">
@@ -2954,25 +2970,25 @@
       <c r="B12">
         <v>102400</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2.52</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2.52</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="F12" s="5">
         <v>0.72999999999999998</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>-90</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.01</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.040000000000000001</v>
       </c>
       <c r="J12">
@@ -2999,349 +3015,1307 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="B2" s="7">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G2" s="5">
+        <v>86.400000000000006</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-2.8799999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7">
+        <v>140</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G3" s="5">
+        <v>85.700000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-5.0300000000000002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G4" s="5">
+        <v>82.799999999999997</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-6.4800000000000004</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>280</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.41999999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G5" s="5">
+        <v>80.700000000000003</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-8.8699999999999992</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="G6" s="5">
+        <v>76</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-13.800000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>560</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>71</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>800</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G8" s="5">
+        <v>63.600000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-25.899999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>1130</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.4399999999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-33.399999999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1600</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44.299999999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-44.700000000000003</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2260</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.3600000000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-55.299999999999997</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.95999999999999996</v>
+      </c>
+      <c r="G12" s="5">
+        <v>22.600000000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-62.700000000000003</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G13" s="5">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>6400</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3.6899999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <f>-6400*360*0.0000384</f>
+        <v>-88.47359999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="H15" s="4">
+        <f>-9000*360*0.0000268</f>
+        <v>-86.832000000000008</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>12800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-14.300000000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-24.600000000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>25600</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="H18" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>36200</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.8400000000000001</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-47.899999999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>43.799999999999997</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>51200</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.1600000000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>-59</v>
+      </c>
+      <c r="H20" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>72400</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.3599999999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>-68.799999999999997</v>
+      </c>
+      <c r="H21" s="4">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>102400</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="G22" s="5">
+        <v>-79.599999999999994</v>
+      </c>
+      <c r="H22" s="4">
+        <v>16.199999999999999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>144800</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="G23" s="5">
+        <v>-86.5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>9.9000000000000004</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>204800</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-93</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.2000000000000002</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L24" s="5">
+        <v>5</v>
+      </c>
+      <c r="M24" s="5">
+        <f>O21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="8" max="8" width="12.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>14</v>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>9.9499999999999993</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>40</v>
       </c>
       <c r="C2" s="9">
         <v>1.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2.52</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.16</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2.48</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.16</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>-3.2400000000000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>159</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2.48</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.16</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2.48</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.23999999999999999</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>-5.4000000000000004</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>84.599999999999994</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K3" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="9">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2.48</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2.4399999999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.44</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>-10.6</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>81.5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K4" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="9">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2.48</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.16</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>2.3599999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.83999999999999997</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>-19.899999999999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>74.599999999999994</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K5" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L5" s="7">
         <v>1</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="9">
         <v>24</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2.48</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.16</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>2.04</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>1.48</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>-35.899999999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>54.600000000000001</v>
       </c>
-      <c r="J6" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K6" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>1</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="9">
         <v>48</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2.52</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.16</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1.4399999999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>2.1200000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>-57.399999999999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>34.600000000000001</v>
       </c>
-      <c r="J7" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K7" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="9">
         <v>96</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2.52</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.16</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.76000000000000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>2.48</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>-77.799999999999997</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>17.300000000000001</v>
       </c>
-      <c r="J8" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K8" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="9">
         <v>192</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>2.52</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.16</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.25</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2.5600000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>-92.799999999999997</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>5.6699999999999999</v>
       </c>
-      <c r="J9" s="7">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>5</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>1</v>
       </c>
     </row>

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R_RLC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RL" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R_RLC" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -53,31 +53,16 @@
     <t>sigmaVin</t>
   </si>
   <si>
-    <t xml:space="preserve">R (kOhm)</t>
+    <t>R(kOhm)</t>
   </si>
   <si>
     <t>R_L</t>
   </si>
   <si>
-    <t>V_LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faseLC (deg)</t>
+    <t xml:space="preserve">Freq (kHz)</t>
   </si>
   <si>
     <t>sigmaV_in</t>
-  </si>
-  <si>
-    <t>sigmaV_LC</t>
-  </si>
-  <si>
-    <t>sigmaF_LC</t>
-  </si>
-  <si>
-    <t>R(kOhm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freq (kHz)</t>
   </si>
   <si>
     <t>VL</t>
@@ -90,6 +75,21 @@
   </si>
   <si>
     <t>sigmaF_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R (kOhm)</t>
+  </si>
+  <si>
+    <t>V_LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faseLC (deg)</t>
+  </si>
+  <si>
+    <t>sigmaV_LC</t>
+  </si>
+  <si>
+    <t>sigmaF_LC</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -171,7 +171,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -3015,7 +3014,10 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="12.140625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
@@ -3025,938 +3027,338 @@
         <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2" s="7">
         <v>40</v>
       </c>
-      <c r="C2" s="7">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="6">
         <v>2.52</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>0.16</v>
       </c>
-      <c r="F2" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="G2" s="5">
-        <v>86.400000000000006</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-2.8799999999999999</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="F2" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-3.2400000000000002</v>
+      </c>
+      <c r="I2" s="6">
+        <v>159</v>
+      </c>
+      <c r="J2" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L2" s="5">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.80000000000000004</v>
+      <c r="K2" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="7">
-        <v>140</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="G3" s="5">
-        <v>85.700000000000003</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-5.0300000000000002</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-5.4000000000000004</v>
+      </c>
+      <c r="I3" s="6">
+        <v>84.599999999999994</v>
+      </c>
+      <c r="J3" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1.5</v>
+      <c r="K3" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="7">
-        <v>200</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="G4" s="5">
-        <v>82.799999999999997</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-6.4800000000000004</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-10.6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>81.5</v>
+      </c>
+      <c r="J4" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.5</v>
+      <c r="K4" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>280</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.41999999999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="G5" s="5">
-        <v>80.700000000000003</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-8.8699999999999992</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.3599999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="J5" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L5" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>2.5</v>
+      <c r="K5" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="7">
-        <v>400</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C6" s="8">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
         <v>2.48</v>
       </c>
-      <c r="G6" s="5">
-        <v>76</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-13.800000000000001</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="E6" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.04</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-35.899999999999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>54.600000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K6" s="6">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>1</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>560</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="8">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6">
         <v>2.52</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.81000000000000005</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.3999999999999999</v>
-      </c>
-      <c r="G7" s="5">
-        <v>71</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
+      <c r="E7" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.4399999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.1200000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-57.399999999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>34.600000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>800</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="8">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6">
         <v>2.52</v>
       </c>
-      <c r="E8" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="G8" s="5">
-        <v>63.600000000000001</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-25.899999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="E8" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-77.799999999999997</v>
+      </c>
+      <c r="I8" s="6">
+        <v>17.300000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7">
-        <v>1130</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="8">
+        <v>192</v>
+      </c>
+      <c r="D9" s="6">
         <v>2.52</v>
       </c>
-      <c r="E9" s="4">
-        <v>1.4399999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2.0800000000000001</v>
-      </c>
-      <c r="G9" s="5">
-        <v>54.899999999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-33.399999999999999</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>1600</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.78</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="G10" s="5">
-        <v>44.299999999999997</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-44.700000000000003</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
-        <v>2260</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.0800000000000001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.3600000000000001</v>
-      </c>
-      <c r="G11" s="5">
-        <v>33.5</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-55.299999999999997</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.95999999999999996</v>
-      </c>
-      <c r="G12" s="5">
-        <v>22.600000000000001</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-62.700000000000003</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L12" s="5">
-        <v>2</v>
-      </c>
-      <c r="M12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <v>4500</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2.4399999999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G13" s="5">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-72.599999999999994</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L13" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="M13" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
-        <v>6400</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E9" s="6">
         <v>0.16</v>
       </c>
-      <c r="G14" s="5">
-        <v>3.6899999999999999</v>
-      </c>
-      <c r="H14" s="4">
-        <f>-6400*360*0.0000384</f>
-        <v>-88.47359999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2</v>
-      </c>
-      <c r="M14" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
-        <v>9000</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="G15" s="5">
-        <v>-4.8600000000000003</v>
-      </c>
-      <c r="H15" s="4">
-        <f>-9000*360*0.0000268</f>
-        <v>-86.832000000000008</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L15" s="5">
-        <v>3</v>
-      </c>
-      <c r="M15" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7">
-        <v>12800</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.4399999999999999</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="G16" s="5">
-        <v>-14.300000000000001</v>
-      </c>
-      <c r="H16" s="4">
-        <v>75.5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L16" s="5">
-        <v>2</v>
-      </c>
-      <c r="M16" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7">
-        <v>18000</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="G17" s="5">
-        <v>-24.600000000000001</v>
-      </c>
-      <c r="H17" s="4">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L17" s="5">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7">
-        <v>25600</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.0800000000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="G18" s="5">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="H18" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7">
-        <v>36200</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.8400000000000001</v>
-      </c>
-      <c r="G19" s="5">
-        <v>-47.899999999999999</v>
-      </c>
-      <c r="H19" s="4">
-        <v>43.799999999999997</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L19" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>51200</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2.1600000000000001</v>
-      </c>
-      <c r="G20" s="5">
-        <v>-59</v>
-      </c>
-      <c r="H20" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L20" s="5">
-        <v>2</v>
-      </c>
-      <c r="M20" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>72400</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.3599999999999999</v>
-      </c>
-      <c r="G21" s="5">
-        <v>-68.799999999999997</v>
-      </c>
-      <c r="H21" s="4">
-        <v>23</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L21" s="5">
-        <v>3</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="F9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-92.799999999999997</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5.6699999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="L9" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>102400</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2.48</v>
-      </c>
-      <c r="G22" s="5">
-        <v>-79.599999999999994</v>
-      </c>
-      <c r="H22" s="4">
-        <v>16.199999999999999</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L22" s="5">
-        <v>3</v>
-      </c>
-      <c r="M22" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7">
-        <v>144800</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.5600000000000001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2.5600000000000001</v>
-      </c>
-      <c r="G23" s="5">
-        <v>-86.5</v>
-      </c>
-      <c r="H23" s="4">
-        <v>9.9000000000000004</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L23" s="5">
-        <v>3</v>
-      </c>
-      <c r="M23" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
-        <v>204800</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2.5600000000000001</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.20999999999999999</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2.5600000000000001</v>
-      </c>
-      <c r="G24" s="5">
-        <v>-93</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L24" s="5">
-        <v>5</v>
-      </c>
-      <c r="M24" s="5">
-        <f>O21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3975,36 +3377,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="12.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.00390625"/>
+    <col customWidth="1" min="8" max="8" width="18.28125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -4020,304 +3423,904 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2" s="7">
         <v>40</v>
       </c>
-      <c r="C2" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
         <v>2.52</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0.16</v>
       </c>
-      <c r="F2" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="H2" s="6">
-        <v>-3.2400000000000002</v>
-      </c>
-      <c r="I2" s="6">
-        <v>159</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="F2" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G2" s="5">
+        <v>86.400000000000006</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-2.8799999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K2" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K2" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>150</v>
+      <c r="L2" s="5">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.23999999999999999</v>
-      </c>
-      <c r="H3" s="6">
-        <v>-5.4000000000000004</v>
-      </c>
-      <c r="I3" s="6">
-        <v>84.599999999999994</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="C3" s="7">
+        <v>140</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G3" s="5">
+        <v>85.700000000000003</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-5.0300000000000002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K3" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <v>10</v>
+      <c r="L3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="9">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2.4399999999999999</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.44</v>
-      </c>
-      <c r="H4" s="6">
-        <v>-10.6</v>
-      </c>
-      <c r="I4" s="6">
-        <v>81.5</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="C4" s="7">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G4" s="5">
+        <v>82.799999999999997</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-6.4800000000000004</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K4" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
+      <c r="L4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="9">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2.3599999999999999</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.83999999999999997</v>
-      </c>
-      <c r="H5" s="6">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="I5" s="6">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="C5" s="7">
+        <v>280</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.41999999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="G5" s="5">
+        <v>80.700000000000003</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-8.8699999999999992</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="K5" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
+      <c r="L5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="9">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="7">
+        <v>400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="F6" s="4">
         <v>2.48</v>
       </c>
-      <c r="E6" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.48</v>
-      </c>
-      <c r="H6" s="6">
-        <v>-35.899999999999999</v>
-      </c>
-      <c r="I6" s="6">
-        <v>54.600000000000001</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="G6" s="5">
+        <v>76</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-13.800000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.040000000000000001</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="9">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="7">
+        <v>560</v>
+      </c>
+      <c r="D7" s="4">
         <v>2.52</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.4399999999999999</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2.1200000000000001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>-57.399999999999999</v>
-      </c>
-      <c r="I7" s="6">
-        <v>34.600000000000001</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
+      <c r="E7" s="4">
+        <v>0.81000000000000005</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.3999999999999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>71</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="9">
-        <v>96</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="7">
+        <v>800</v>
+      </c>
+      <c r="D8" s="4">
         <v>2.52</v>
       </c>
-      <c r="E8" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.76000000000000001</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2.48</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-77.799999999999997</v>
-      </c>
-      <c r="I8" s="6">
-        <v>17.300000000000001</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="E8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G8" s="5">
+        <v>63.600000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-25.899999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="9">
-        <v>192</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="7">
+        <v>1130</v>
+      </c>
+      <c r="D9" s="4">
         <v>2.52</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
+        <v>1.4399999999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-33.399999999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>1600</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44.299999999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-44.700000000000003</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>2260</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.3600000000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-55.299999999999997</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.95999999999999996</v>
+      </c>
+      <c r="G12" s="5">
+        <v>22.600000000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-62.700000000000003</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G13" s="5">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>6400</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.16</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="G14" s="5">
+        <v>3.6899999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <f>-6400*360*0.0000384</f>
+        <v>-88.47359999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="H15" s="4">
+        <f>-9000*360*0.0000268</f>
+        <v>-86.832000000000008</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <v>12800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-14.300000000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-24.600000000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>25600</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.0800000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="H18" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>36200</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.8400000000000001</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-47.899999999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>43.799999999999997</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>51200</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.3999999999999999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.1600000000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>-59</v>
+      </c>
+      <c r="H20" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>72400</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.3599999999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>-68.799999999999997</v>
+      </c>
+      <c r="H21" s="4">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>102400</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="G22" s="5">
+        <v>-79.599999999999994</v>
+      </c>
+      <c r="H22" s="4">
+        <v>16.199999999999999</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>144800</v>
+      </c>
+      <c r="D23" s="4">
         <v>2.5600000000000001</v>
       </c>
-      <c r="H9" s="6">
-        <v>-92.799999999999997</v>
-      </c>
-      <c r="I9" s="6">
-        <v>5.6699999999999999</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="E23" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="G23" s="5">
+        <v>-86.5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>9.9000000000000004</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>204800</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.5600000000000001</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-93</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.2000000000000002</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L24" s="5">
         <v>5</v>
       </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
+      <c r="M24" s="5">
+        <f>O21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
@@ -2660,7 +2660,7 @@
         <v>-2.52</v>
       </c>
       <c r="H2" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I2" s="4">
         <v>0.080000000000000002</v>
@@ -2695,7 +2695,7 @@
         <v>-7.2000000000000002</v>
       </c>
       <c r="H3" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I3" s="4">
         <v>0.080000000000000002</v>
@@ -2727,7 +2727,7 @@
         <v>-12.9</v>
       </c>
       <c r="H4" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I4" s="4">
         <v>0.080000000000000002</v>
@@ -2921,7 +2921,7 @@
         <v>-84.787199999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>0.01</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I10" s="4">
         <v>0.040000000000000001</v>
@@ -2953,7 +2953,7 @@
         <v>-90</v>
       </c>
       <c r="H11" s="4">
-        <v>0.01</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I11" s="4">
         <v>0.040000000000000001</v>
@@ -2985,7 +2985,7 @@
         <v>-90</v>
       </c>
       <c r="H12" s="4">
-        <v>0.01</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I12" s="4">
         <v>0.040000000000000001</v>

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RL" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="R_RLC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="L_RLC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">R (kohm)</t>
   </si>
@@ -91,6 +92,27 @@
   <si>
     <t>sigmaF_LC</t>
   </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Vinpp</t>
+  </si>
+  <si>
+    <t>VLpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faseL  (deg)</t>
+  </si>
+  <si>
+    <t>sigmaV_inpp</t>
+  </si>
+  <si>
+    <t>sigmaV_Lpp</t>
+  </si>
+  <si>
+    <t>sigmaVL</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -112,8 +134,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +152,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -154,15 +188,16 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
@@ -174,10 +209,16 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4328,4 +4369,728 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="15.28125"/>
+    <col customWidth="1" min="9" max="9" width="13.00390625"/>
+    <col customWidth="1" min="10" max="10" width="13.7109375"/>
+    <col customWidth="1" min="11" max="11" width="12.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="B2" s="7">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.024</v>
+      </c>
+      <c r="F2" s="8">
+        <v>148</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G9" si="0">D2/2</f>
+        <v>2.54</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H9" si="1">D2/2</f>
+        <v>2.54</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K2" s="8">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L9" si="2">I2/2</f>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M9" si="3">J2/2</f>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="F3" s="8">
+        <v>141</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>124.5</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5" s="8">
+        <v>105.5</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="F6" s="8">
+        <v>86.5</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.3399999999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>66.200000000000003</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.0800000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.9399999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>2.54</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.1600000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.4000000000000004</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <v>128</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.1600000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.2800000000000002</v>
+      </c>
+      <c r="F10" s="8">
+        <v>-30</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" ref="G10:G17" si="4">D10/2</f>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H17" si="5">D10/2</f>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L17" si="6">I10/2</f>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M17" si="7">J10/2</f>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <v>256</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.1600000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.6800000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <v>-56.299999999999997</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
+        <v>512</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.1600000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="F12" s="8">
+        <v>-70</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <v>1024</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-75.599999999999994</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <v>2048</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.39000000000000001</v>
+      </c>
+      <c r="F14" s="8">
+        <v>-73.400000000000006</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
+        <v>4096</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5.2400000000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>-64</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6200000000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6200000000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>8192</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5.2400000000000002</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-50</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6200000000000001</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6200000000000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K16" s="8">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8">
+        <v>16384</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5.1600000000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-31</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5800000000000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">R (kohm)</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>VLpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faseL  (deg)</t>
   </si>
   <si>
     <t>sigmaV_inpp</t>
@@ -4403,7 +4400,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -4412,10 +4409,10 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>19</v>
@@ -4424,7 +4421,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -4451,8 +4448,8 @@
         <v>2.54</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H9" si="1">D2/2</f>
-        <v>2.54</v>
+        <f t="shared" ref="H2:H9" si="1">E2/2</f>
+        <v>0.012</v>
       </c>
       <c r="I2" s="8">
         <v>0.80000000000000004</v>
@@ -4463,11 +4460,11 @@
       <c r="K2" s="8">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <f t="shared" ref="L2:L9" si="2">I2/2</f>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <f t="shared" ref="M2:M9" si="3">J2/2</f>
         <v>0.40000000000000002</v>
       </c>
@@ -4493,7 +4490,7 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="I3" s="8">
         <v>0.80000000000000004</v>
@@ -4504,11 +4501,11 @@
       <c r="K3" s="8">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4534,7 +4531,7 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>0.12</v>
       </c>
       <c r="I4" s="8">
         <v>0.80000000000000004</v>
@@ -4545,11 +4542,11 @@
       <c r="K4" s="8">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4575,7 +4572,7 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I5" s="8">
         <v>0.80000000000000004</v>
@@ -4586,11 +4583,11 @@
       <c r="K5" s="8">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4616,7 +4613,7 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="I6" s="8">
         <v>0.80000000000000004</v>
@@ -4627,11 +4624,11 @@
       <c r="K6" s="8">
         <v>1.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4657,7 +4654,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>1.1699999999999999</v>
       </c>
       <c r="I7" s="8">
         <v>0.80000000000000004</v>
@@ -4668,11 +4665,11 @@
       <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="I8" s="8">
         <v>0.80000000000000004</v>
@@ -4709,11 +4706,11 @@
       <c r="K8" s="8">
         <v>1.5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4739,7 +4736,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>2.5800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="8">
         <v>0.80000000000000004</v>
@@ -4750,11 +4747,11 @@
       <c r="K9" s="8">
         <v>1.5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <f t="shared" si="2"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <f t="shared" si="3"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4779,8 +4776,8 @@
         <v>2.5800000000000001</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:H17" si="5">D10/2</f>
-        <v>2.5800000000000001</v>
+        <f t="shared" ref="H10:H17" si="5">E10/2</f>
+        <v>2.1400000000000001</v>
       </c>
       <c r="I10" s="8">
         <v>0.80000000000000004</v>
@@ -4791,11 +4788,11 @@
       <c r="K10" s="8">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <f t="shared" ref="L10:L17" si="6">I10/2</f>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <f t="shared" ref="M10:M17" si="7">J10/2</f>
         <v>0.40000000000000002</v>
       </c>
@@ -4821,7 +4818,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="5"/>
-        <v>2.5800000000000001</v>
+        <v>1.3400000000000001</v>
       </c>
       <c r="I11" s="8">
         <v>0.80000000000000004</v>
@@ -4832,11 +4829,11 @@
       <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4862,7 +4859,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="5"/>
-        <v>2.5800000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="I12" s="8">
         <v>0.80000000000000004</v>
@@ -4873,11 +4870,11 @@
       <c r="K12" s="8">
         <v>2</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4903,7 +4900,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="5"/>
-        <v>2.6000000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="I13" s="8">
         <v>0.80000000000000004</v>
@@ -4914,11 +4911,11 @@
       <c r="K13" s="8">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4944,7 +4941,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="5"/>
-        <v>2.6000000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I14" s="8">
         <v>0.80000000000000004</v>
@@ -4955,11 +4952,11 @@
       <c r="K14" s="8">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>
@@ -4985,7 +4982,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="5"/>
-        <v>2.6200000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="I15" s="8">
         <v>0.80000000000000004</v>
@@ -4996,11 +4993,11 @@
       <c r="K15" s="8">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>
@@ -5026,7 +5023,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="5"/>
-        <v>2.6200000000000001</v>
+        <v>0.065000000000000002</v>
       </c>
       <c r="I16" s="8">
         <v>0.80000000000000004</v>
@@ -5037,11 +5034,11 @@
       <c r="K16" s="8">
         <v>4</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>
@@ -5067,7 +5064,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="5"/>
-        <v>2.5800000000000001</v>
+        <v>0.044999999999999998</v>
       </c>
       <c r="I17" s="8">
         <v>0.80000000000000004</v>
@@ -5078,11 +5075,11 @@
       <c r="K17" s="8">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <f t="shared" si="6"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <f t="shared" si="7"/>
         <v>0.40000000000000002</v>
       </c>

--- a/20240411circuiti3/circuiti3.xlsx
+++ b/20240411circuiti3/circuiti3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RC" sheetId="1" state="visible" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
@@ -206,7 +206,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
@@ -3036,6 +3035,7 @@
       </c>
     </row>
     <row r="13" ht="14.25"/>
+    <row r="15" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -4399,13 +4399,13 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -4417,15 +4417,15 @@
       <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>9.9499999999999993</v>
       </c>
       <c r="B2" s="7">
